--- a/data/trans_orig/P6715-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6655</v>
+        <v>8472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009544575975963187</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05247156013844354</v>
+        <v>0.06678958230100732</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5936</v>
+        <v>4874</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01363511899539368</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06879875246383563</v>
+        <v>0.05648680595688547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7462</v>
+        <v>7504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01120063055998371</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03501146419291359</v>
+        <v>0.03520817434596379</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8211</v>
+        <v>8672</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02719353460519023</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09516381828307885</v>
+        <v>0.1005009521556562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7204</v>
+        <v>8330</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0110092908019131</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03380180968664847</v>
+        <v>0.03908756195228746</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>18468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10892</v>
+        <v>11325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28123</v>
+        <v>29323</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1456035862739656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08587520366396435</v>
+        <v>0.08928178190100593</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2217164004089148</v>
+        <v>0.2311792558149853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -897,19 +897,19 @@
         <v>7602</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3148</v>
+        <v>3282</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14562</v>
+        <v>15042</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08810653383251991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03648720262761143</v>
+        <v>0.03803476206548999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1687649768752417</v>
+        <v>0.1743312602374028</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -918,19 +918,19 @@
         <v>26070</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16579</v>
+        <v>16588</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37890</v>
+        <v>38766</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1223259292951664</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07778865234207383</v>
+        <v>0.07783070549677616</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1777846694249373</v>
+        <v>0.1818929486583609</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>16531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9685</v>
+        <v>10055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24977</v>
+        <v>26168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.130331957226773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0763583168082253</v>
+        <v>0.0792715400673063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1969186416192063</v>
+        <v>0.2063105478808024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -968,19 +968,19 @@
         <v>5269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2043</v>
+        <v>2083</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11579</v>
+        <v>12266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06106878847789064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02367707778810153</v>
+        <v>0.02413846324453938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1341936239131007</v>
+        <v>0.1421601953214591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -989,19 +989,19 @@
         <v>21801</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13529</v>
+        <v>14260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31828</v>
+        <v>31615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1022907931159153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06347969667399025</v>
+        <v>0.06690993148735856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1493408155718905</v>
+        <v>0.1483407997538122</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>90630</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78225</v>
+        <v>78957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99744</v>
+        <v>100069</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7145198805232982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6167232619793582</v>
+        <v>0.622495526030113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7863739260681707</v>
+        <v>0.7889371121818395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -1039,19 +1039,19 @@
         <v>69889</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61288</v>
+        <v>62249</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76634</v>
+        <v>77274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8099960240890055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7103172178167457</v>
+        <v>0.7214491179662363</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8881693147188121</v>
+        <v>0.8955867375688122</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>151</v>
@@ -1060,19 +1060,19 @@
         <v>160519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>146793</v>
+        <v>146243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>173637</v>
+        <v>172230</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7531733562270214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6887692098501424</v>
+        <v>0.6861899478679602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.814728511284864</v>
+        <v>0.8081241742229172</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6063</v>
+        <v>5243</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006080706676664801</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03520089793183378</v>
+        <v>0.03044012228830418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4862</v>
+        <v>5438</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008783693470072407</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0396301897301175</v>
+        <v>0.04432629465534596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7569</v>
+        <v>6776</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007205133194755728</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02566442397381945</v>
+        <v>0.02297541083536792</v>
       </c>
     </row>
     <row r="11">
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4845</v>
+        <v>6231</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008448170136467809</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03949388914623573</v>
+        <v>0.05079042626116551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5612</v>
+        <v>5210</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003514388806470118</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01902683339546163</v>
+        <v>0.01766402050099128</v>
       </c>
     </row>
     <row r="12">
@@ -1298,19 +1298,19 @@
         <v>7745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3659</v>
+        <v>3714</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14954</v>
+        <v>14567</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04496440687004787</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02124522668405853</v>
+        <v>0.02156362383945298</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08682340122738731</v>
+        <v>0.08457333614450353</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1319,19 +1319,19 @@
         <v>6781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2836</v>
+        <v>2748</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14821</v>
+        <v>13751</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05527421170326405</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02311713746589853</v>
+        <v>0.02239477070424544</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1208003988966951</v>
+        <v>0.1120781186589154</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1340,19 +1340,19 @@
         <v>14526</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8041</v>
+        <v>8021</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23500</v>
+        <v>22517</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04925322469893399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0272659234568601</v>
+        <v>0.02719758847403449</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07967943488234523</v>
+        <v>0.07634852722303413</v>
       </c>
     </row>
     <row r="13">
@@ -1369,19 +1369,19 @@
         <v>20495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13320</v>
+        <v>13182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30231</v>
+        <v>31561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1189921140711371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07733449644308119</v>
+        <v>0.07653066985913658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1755158281283459</v>
+        <v>0.1832372470526356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1390,19 +1390,19 @@
         <v>17995</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10332</v>
+        <v>10818</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27934</v>
+        <v>27664</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1466717241353661</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08421506062878722</v>
+        <v>0.0881771824835508</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2276844166732526</v>
+        <v>0.2254791297981462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -1411,19 +1411,19 @@
         <v>38490</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27626</v>
+        <v>28380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51391</v>
+        <v>51927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1305066681350134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09366892611909707</v>
+        <v>0.09622845776319554</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.174250552605544</v>
+        <v>0.1760666523080862</v>
       </c>
     </row>
     <row r="14">
@@ -1440,19 +1440,19 @@
         <v>142953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130851</v>
+        <v>131129</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151356</v>
+        <v>152000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8299627723821502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7596999059518103</v>
+        <v>0.7613182135400652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8787480384421851</v>
+        <v>0.8824897612131943</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -1461,19 +1461,19 @@
         <v>95798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84517</v>
+        <v>85413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104822</v>
+        <v>105039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7808222005548296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6888746789885734</v>
+        <v>0.696178162617672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.854379392653662</v>
+        <v>0.8561472911430191</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -1482,19 +1482,19 @@
         <v>238750</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>223175</v>
+        <v>223421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>251559</v>
+        <v>250736</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8095205851648267</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7567102896278451</v>
+        <v>0.7575453954627226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8529509846126867</v>
+        <v>0.8501603933778044</v>
       </c>
     </row>
     <row r="15">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4934</v>
+        <v>5981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01211449762089165</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06062653226018958</v>
+        <v>0.07349510644625902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4886</v>
+        <v>4272</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004390065033159619</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0217548568658468</v>
+        <v>0.01902316544948519</v>
       </c>
     </row>
     <row r="17">
@@ -1649,19 +1649,19 @@
         <v>5600</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1889</v>
+        <v>1878</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11357</v>
+        <v>10450</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03910370791199079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01319337555938321</v>
+        <v>0.01311221427964643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07930739634411087</v>
+        <v>0.07297134293732753</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1683,19 +1683,19 @@
         <v>5600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2291</v>
+        <v>1887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11393</v>
+        <v>11860</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02493326303318097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0101994469864963</v>
+        <v>0.008400129920104573</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05072734341291959</v>
+        <v>0.05280867706316681</v>
       </c>
     </row>
     <row r="18">
@@ -1712,19 +1712,19 @@
         <v>17179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10714</v>
+        <v>10221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26638</v>
+        <v>25974</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1199668021687237</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07481670942874531</v>
+        <v>0.071373118213113</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1860173980812884</v>
+        <v>0.1813846374623629</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1733,19 +1733,19 @@
         <v>19862</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12365</v>
+        <v>12977</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28303</v>
+        <v>28715</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2440459543109381</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1519253298919152</v>
+        <v>0.1594455066709883</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3477669484379431</v>
+        <v>0.3528289517577978</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -1754,19 +1754,19 @@
         <v>37041</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27560</v>
+        <v>26305</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48943</v>
+        <v>48798</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1649307424169975</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.122715676963052</v>
+        <v>0.1171256980991692</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2179253589353862</v>
+        <v>0.217278367109323</v>
       </c>
     </row>
     <row r="19">
@@ -1783,19 +1783,19 @@
         <v>37722</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28871</v>
+        <v>28789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49590</v>
+        <v>48824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2634188812753399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2016099815818776</v>
+        <v>0.2010387671364104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3462942924598142</v>
+        <v>0.3409455921076352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1804,19 +1804,19 @@
         <v>21194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14335</v>
+        <v>13409</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29750</v>
+        <v>29270</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2604074300055828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1761383333024032</v>
+        <v>0.1647578730195281</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3655360492613028</v>
+        <v>0.3596381597965967</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -1825,19 +1825,19 @@
         <v>58915</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46592</v>
+        <v>44979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72190</v>
+        <v>72001</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2623275882368546</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2074580082327734</v>
+        <v>0.2002740388584082</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3214363867673392</v>
+        <v>0.3205941057756469</v>
       </c>
     </row>
     <row r="20">
@@ -1854,19 +1854,19 @@
         <v>82700</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71047</v>
+        <v>70312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>93267</v>
+        <v>94165</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5775106086439457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.496137151119786</v>
+        <v>0.4910004457870881</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6513027035204597</v>
+        <v>0.6575691258074132</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1875,19 +1875,19 @@
         <v>39345</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30649</v>
+        <v>30263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48580</v>
+        <v>48596</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4834321180625875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3765848983906213</v>
+        <v>0.3718475396340709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5969087264595081</v>
+        <v>0.5971057795125319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>121</v>
@@ -1896,19 +1896,19 @@
         <v>122044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107885</v>
+        <v>107771</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136507</v>
+        <v>137171</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5434183412798073</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4803724945241739</v>
+        <v>0.4798638672447906</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6078160147946355</v>
+        <v>0.6107731812788214</v>
       </c>
     </row>
     <row r="21">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5004</v>
+        <v>5388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.007298544314924371</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0350695438815725</v>
+        <v>0.03775713218217853</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6255</v>
+        <v>6286</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01836062727983542</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06105758766241147</v>
+        <v>0.06135355275579186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2089,19 +2089,19 @@
         <v>2922</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7900</v>
+        <v>8687</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01192160739395879</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003702427976748322</v>
+        <v>0.003674880985261771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03222801665279158</v>
+        <v>0.03543795152091796</v>
       </c>
     </row>
     <row r="24">
@@ -2118,19 +2118,19 @@
         <v>10440</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5194</v>
+        <v>5365</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17744</v>
+        <v>18082</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07316267475135056</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03639966130211673</v>
+        <v>0.03760090958150655</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1243564713820142</v>
+        <v>0.126724917866061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2139,19 +2139,19 @@
         <v>12302</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6633</v>
+        <v>6019</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20357</v>
+        <v>19754</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.120079141599563</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06474582279332858</v>
+        <v>0.0587519936835719</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1987044841286713</v>
+        <v>0.1928223428267362</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2160,19 +2160,19 @@
         <v>22741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14578</v>
+        <v>15317</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33185</v>
+        <v>33419</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09276999340668096</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05946854798291317</v>
+        <v>0.06248534600952001</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1353742531736013</v>
+        <v>0.136329457466567</v>
       </c>
     </row>
     <row r="25">
@@ -2189,19 +2189,19 @@
         <v>29551</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20731</v>
+        <v>20081</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40531</v>
+        <v>40852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2070999199837831</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1452872994097539</v>
+        <v>0.1407294239163109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2840508645003055</v>
+        <v>0.2862988596871968</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2210,19 +2210,19 @@
         <v>13189</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7143</v>
+        <v>7100</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20748</v>
+        <v>19914</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1287391409280232</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06972731144615193</v>
+        <v>0.06930127480203348</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2025271013558599</v>
+        <v>0.1943786844575698</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2231,19 +2231,19 @@
         <v>42740</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31640</v>
+        <v>31429</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55418</v>
+        <v>56797</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1743514018569377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1290710499483893</v>
+        <v>0.1282094078299482</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.226070258198097</v>
+        <v>0.2316938727992573</v>
       </c>
     </row>
     <row r="26">
@@ -2260,19 +2260,19 @@
         <v>101657</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90181</v>
+        <v>89752</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111655</v>
+        <v>112649</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.712438860949942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6320076718173846</v>
+        <v>0.6290043369535792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7825033519989738</v>
+        <v>0.7894749477248114</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>69</v>
@@ -2281,19 +2281,19 @@
         <v>75076</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65669</v>
+        <v>66258</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83314</v>
+        <v>83344</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7328210901925784</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6410011530637797</v>
+        <v>0.6467435717691595</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8132281833882767</v>
+        <v>0.8135245670078711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>162</v>
@@ -2302,19 +2302,19 @@
         <v>176733</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>160696</v>
+        <v>159124</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>190040</v>
+        <v>191069</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7209569973424225</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6555371692908331</v>
+        <v>0.6491230976710629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7752388649578003</v>
+        <v>0.7794364009520972</v>
       </c>
     </row>
     <row r="27">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6278</v>
+        <v>7293</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0127633509035122</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0762695560320566</v>
+        <v>0.08859511180181304</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5888</v>
+        <v>5236</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007665428790137465</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04296200988908378</v>
+        <v>0.03820296086813604</v>
       </c>
     </row>
     <row r="29">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8247</v>
+        <v>6855</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04006658690260446</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1506475170942014</v>
+        <v>0.1252206167219386</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7154</v>
+        <v>7065</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01600334746904364</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05220072740777628</v>
+        <v>0.05154875122386094</v>
       </c>
     </row>
     <row r="30">
@@ -2532,19 +2532,19 @@
         <v>7152</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3071</v>
+        <v>3016</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14825</v>
+        <v>14682</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08688486740580365</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03730654638882457</v>
+        <v>0.03663903632336601</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1801086083716708</v>
+        <v>0.1783684509276775</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2553,19 +2553,19 @@
         <v>13549</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7880</v>
+        <v>7827</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21994</v>
+        <v>20722</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2474994985999219</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1439458127591526</v>
+        <v>0.1429741537283565</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4017612611036925</v>
+        <v>0.378533822014532</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -2574,19 +2574,19 @@
         <v>20701</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13097</v>
+        <v>13702</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31389</v>
+        <v>31718</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1510373682878962</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.095558169063246</v>
+        <v>0.09997286499638698</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2290181478180034</v>
+        <v>0.2314186687265356</v>
       </c>
     </row>
     <row r="31">
@@ -2603,19 +2603,19 @@
         <v>11242</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5967</v>
+        <v>6208</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18506</v>
+        <v>19049</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1365726533306889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0724870346846235</v>
+        <v>0.07542457854987483</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.224822905512527</v>
+        <v>0.2314164583673904</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -2624,19 +2624,19 @@
         <v>14655</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9403</v>
+        <v>9444</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22153</v>
+        <v>22489</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2677019637084146</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1717640099706588</v>
+        <v>0.1725222688959466</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4046789359942586</v>
+        <v>0.4108138057561754</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>26</v>
@@ -2645,19 +2645,19 @@
         <v>25897</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18303</v>
+        <v>18173</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37323</v>
+        <v>35885</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1889481631901125</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1335462628351093</v>
+        <v>0.1325934867503303</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2723207367508585</v>
+        <v>0.2618256347541484</v>
       </c>
     </row>
     <row r="32">
@@ -2674,19 +2674,19 @@
         <v>62870</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54264</v>
+        <v>54365</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>70130</v>
+        <v>69654</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7637791283599953</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6592357393841713</v>
+        <v>0.6604557340385916</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8519830227541234</v>
+        <v>0.8461936275955063</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2695,19 +2695,19 @@
         <v>24346</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15436</v>
+        <v>17501</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30868</v>
+        <v>32260</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4447319507890591</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2819716660014789</v>
+        <v>0.3196965472511257</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5638785055791971</v>
+        <v>0.5892976766222685</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>80</v>
@@ -2716,19 +2716,19 @@
         <v>87216</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>73990</v>
+        <v>74719</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>96850</v>
+        <v>96987</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6363456922628102</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5398514637969147</v>
+        <v>0.5451645809895019</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7066377677951073</v>
+        <v>0.707642908477447</v>
       </c>
     </row>
     <row r="33">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6339</v>
+        <v>5304</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008764053446206739</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05360089220553061</v>
+        <v>0.04484806272674331</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6537</v>
+        <v>5342</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01957971855337371</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.118225383026576</v>
+        <v>0.09661977683110853</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7578</v>
+        <v>6791</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01220970878579492</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0436611353630641</v>
+        <v>0.03913081898568171</v>
       </c>
     </row>
     <row r="36">
@@ -2938,19 +2938,19 @@
         <v>12675</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7103</v>
+        <v>7140</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20430</v>
+        <v>20058</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1071745789627895</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06005911802285316</v>
+        <v>0.0603690178914997</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1727487757058034</v>
+        <v>0.1695993002432591</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2959,19 +2959,19 @@
         <v>5971</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2124</v>
+        <v>2029</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12196</v>
+        <v>11763</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1079891228819441</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03841251181897627</v>
+        <v>0.03669562567198365</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2205725097796116</v>
+        <v>0.2127421149830333</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>19</v>
@@ -2980,19 +2980,19 @@
         <v>18646</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11236</v>
+        <v>11581</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>27944</v>
+        <v>27490</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1074340764210183</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06473884078364532</v>
+        <v>0.06672629190079188</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.161004419284325</v>
+        <v>0.1583884846076277</v>
       </c>
     </row>
     <row r="37">
@@ -3009,19 +3009,19 @@
         <v>21744</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14164</v>
+        <v>13209</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32140</v>
+        <v>33043</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1838527089437665</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1197612669356198</v>
+        <v>0.1116896457564921</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2717595503140605</v>
+        <v>0.279399634959096</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -3030,19 +3030,19 @@
         <v>16749</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10481</v>
+        <v>10618</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25255</v>
+        <v>24000</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3029242569293005</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1895619989413855</v>
+        <v>0.1920408031943525</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4567616546846597</v>
+        <v>0.4340521990380752</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>36</v>
@@ -3051,19 +3051,19 @@
         <v>38493</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>28279</v>
+        <v>27405</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>51253</v>
+        <v>49718</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2217865309550929</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1629381730141679</v>
+        <v>0.1578992446885261</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2953079205771079</v>
+        <v>0.2864631348115276</v>
       </c>
     </row>
     <row r="38">
@@ -3080,19 +3080,19 @@
         <v>82811</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>71648</v>
+        <v>71243</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>92617</v>
+        <v>92667</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7002086586472372</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6058166150641794</v>
+        <v>0.6023970832909574</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7831255996347626</v>
+        <v>0.7835490121626368</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>28</v>
@@ -3101,19 +3101,19 @@
         <v>31489</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>23886</v>
+        <v>24478</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>38829</v>
+        <v>39046</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5695069016353818</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.432000301061553</v>
+        <v>0.4426966549747044</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7022557915163786</v>
+        <v>0.7061722494478926</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>104</v>
@@ -3122,19 +3122,19 @@
         <v>114300</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>99549</v>
+        <v>101392</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>126870</v>
+        <v>127467</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6585696838380938</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5735755103220335</v>
+        <v>0.584196119029383</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7309966426071131</v>
+        <v>0.7344355701265766</v>
       </c>
     </row>
     <row r="39">
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4983</v>
+        <v>4883</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003310409389812198</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01839173528685795</v>
+        <v>0.01802277567792463</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5791</v>
+        <v>6735</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01037103268553274</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0317875612532998</v>
+        <v>0.03697208876814466</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3268,19 +3268,19 @@
         <v>2786</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7519</v>
+        <v>6697</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006148957619599863</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001966110311741791</v>
+        <v>0.001960348051663303</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01659283035090422</v>
+        <v>0.01478054586556543</v>
       </c>
     </row>
     <row r="41">
@@ -3297,19 +3297,19 @@
         <v>6105</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2224</v>
+        <v>2027</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15182</v>
+        <v>14517</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02253007062325711</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008206494712328209</v>
+        <v>0.007479847311526422</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05603198172675804</v>
+        <v>0.05357850152996313</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8378</v>
+        <v>7835</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01226294646030443</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04599107942250107</v>
+        <v>0.04301220258613357</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -3339,19 +3339,19 @@
         <v>8339</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3415</v>
+        <v>3473</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17474</v>
+        <v>17274</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01840242836036743</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007537017632077899</v>
+        <v>0.007664797430214907</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03856311911212817</v>
+        <v>0.03812263331826864</v>
       </c>
     </row>
     <row r="42">
@@ -3368,19 +3368,19 @@
         <v>44206</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>33469</v>
+        <v>32665</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>57982</v>
+        <v>58853</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.163150211646052</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.123522025895217</v>
+        <v>0.1205567965711232</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2139920486093912</v>
+        <v>0.2172053594428988</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -3389,19 +3389,19 @@
         <v>36364</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>25706</v>
+        <v>26255</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>48762</v>
+        <v>48672</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.199620543599984</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1411142485122791</v>
+        <v>0.1441286781983145</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2676789012384175</v>
+        <v>0.2671857299000371</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>74</v>
@@ -3410,19 +3410,19 @@
         <v>80570</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>65760</v>
+        <v>63908</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>101695</v>
+        <v>99133</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1778122027864585</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.14512718345308</v>
+        <v>0.1410400516564302</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2244327541785512</v>
+        <v>0.2187786122518243</v>
       </c>
     </row>
     <row r="43">
@@ -3439,19 +3439,19 @@
         <v>45073</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>35067</v>
+        <v>33129</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>59877</v>
+        <v>58198</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1663506452098152</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.12942017643829</v>
+        <v>0.1222678703375996</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2209860152970601</v>
+        <v>0.214790021531801</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>44</v>
@@ -3460,19 +3460,19 @@
         <v>47065</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>36899</v>
+        <v>36103</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>60757</v>
+        <v>58902</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2583670984190141</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2025588355915456</v>
+        <v>0.1981898260273171</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3335298839972634</v>
+        <v>0.3233420915675188</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>90</v>
@@ -3481,19 +3481,19 @@
         <v>92139</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>74429</v>
+        <v>76257</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>110335</v>
+        <v>112861</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2033435747896472</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1642583174600398</v>
+        <v>0.168292808980662</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2435011343335899</v>
+        <v>0.2490744611152446</v>
       </c>
     </row>
     <row r="44">
@@ -3510,19 +3510,19 @@
         <v>174673</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>156378</v>
+        <v>157043</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>188996</v>
+        <v>190390</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6446586631310636</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.577138127903406</v>
+        <v>0.5795917664598508</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6975222411425894</v>
+        <v>0.7026662981710968</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>90</v>
@@ -3531,19 +3531,19 @@
         <v>94613</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>81281</v>
+        <v>81112</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>109329</v>
+        <v>107787</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5193783788351648</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4461933690169176</v>
+        <v>0.4452688869075329</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6001671304462655</v>
+        <v>0.591699594334396</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>249</v>
@@ -3552,19 +3552,19 @@
         <v>269286</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>245479</v>
+        <v>247578</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>290031</v>
+        <v>290162</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5942928364439271</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5417523040907222</v>
+        <v>0.5463855995100659</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6400754900828447</v>
+        <v>0.6403645153367789</v>
       </c>
     </row>
     <row r="45">
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7104</v>
+        <v>7215</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.005674268321386342</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01972009027495459</v>
+        <v>0.02002952430209927</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>5314</v>
+        <v>5740</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004076844102129949</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02070355205472498</v>
+        <v>0.02236136276468752</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>3</v>
@@ -3698,19 +3698,19 @@
         <v>3091</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>9206</v>
+        <v>8318</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.005009606482052233</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001643181626816251</v>
+        <v>0.001649553638349606</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01492254297576369</v>
+        <v>0.01348226302154088</v>
       </c>
     </row>
     <row r="47">
@@ -3727,19 +3727,19 @@
         <v>8188</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3846</v>
+        <v>3788</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>15724</v>
+        <v>15283</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02272916181378465</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01067690216098707</v>
+        <v>0.01051618640904573</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04364922039929388</v>
+        <v>0.04242638320282014</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>9</v>
@@ -3748,19 +3748,19 @@
         <v>9615</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4661</v>
+        <v>4653</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17747</v>
+        <v>16832</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03745611453545633</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01815905628358419</v>
+        <v>0.01812765190752782</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0691389840014623</v>
+        <v>0.06557184364254272</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>17</v>
@@ -3769,19 +3769,19 @@
         <v>17802</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10272</v>
+        <v>10649</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>27644</v>
+        <v>28159</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02885680365480376</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01665057518753332</v>
+        <v>0.01726119467795158</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0448086075955559</v>
+        <v>0.04564464554920285</v>
       </c>
     </row>
     <row r="48">
@@ -3798,19 +3798,19 @@
         <v>45822</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>33161</v>
+        <v>33681</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>58746</v>
+        <v>59431</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1272009294826783</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.09205338443249547</v>
+        <v>0.09349810227646636</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.16307723549202</v>
+        <v>0.1649802789633417</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>35</v>
@@ -3819,19 +3819,19 @@
         <v>38758</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>27787</v>
+        <v>28991</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>51927</v>
+        <v>54365</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1509896381739519</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.108249973442397</v>
+        <v>0.1129392933123624</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2022912214972275</v>
+        <v>0.2117897525170998</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>79</v>
@@ -3840,19 +3840,19 @@
         <v>84580</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>68568</v>
+        <v>68088</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>105080</v>
+        <v>103423</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.137099018345689</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1111457167178591</v>
+        <v>0.1103674010402403</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1703292746499699</v>
+        <v>0.1676427031076552</v>
       </c>
     </row>
     <row r="49">
@@ -3869,19 +3869,19 @@
         <v>131195</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>112995</v>
+        <v>111102</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>150811</v>
+        <v>149654</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3641964343488279</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3136717967050652</v>
+        <v>0.3084169808882833</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4186508563735731</v>
+        <v>0.4154379658861044</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>73</v>
@@ -3890,19 +3890,19 @@
         <v>79492</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>64418</v>
+        <v>66605</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>95767</v>
+        <v>96482</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.30967774876327</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2509541385147383</v>
+        <v>0.2594729121128019</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.373080773659344</v>
+        <v>0.3758678371927077</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>195</v>
@@ -3911,19 +3911,19 @@
         <v>210687</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>184096</v>
+        <v>187072</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>234507</v>
+        <v>236887</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3415121095448362</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2984095193909418</v>
+        <v>0.3032330856303635</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3801232607567656</v>
+        <v>0.3839812851516001</v>
       </c>
     </row>
     <row r="50">
@@ -3940,19 +3940,19 @@
         <v>172983</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>150909</v>
+        <v>154773</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>190988</v>
+        <v>193206</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4801992060333228</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4189222362738022</v>
+        <v>0.4296482514117428</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5301794954656344</v>
+        <v>0.5363365144697101</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>115</v>
@@ -3961,19 +3961,19 @@
         <v>127781</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>109346</v>
+        <v>110778</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>143902</v>
+        <v>143404</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4977996544251919</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.4259824438205885</v>
+        <v>0.431561419458477</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5606010077035281</v>
+        <v>0.5586635757065014</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>274</v>
@@ -3982,19 +3982,19 @@
         <v>300764</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>277049</v>
+        <v>275081</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>329521</v>
+        <v>330444</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4875224619726188</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4490819626898376</v>
+        <v>0.4458915323659185</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5341348243707609</v>
+        <v>0.5356320068452988</v>
       </c>
     </row>
     <row r="51">
@@ -4086,19 +4086,19 @@
         <v>6250</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2814</v>
+        <v>2227</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>14946</v>
+        <v>13068</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.004411263106489915</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.001986405446185522</v>
+        <v>0.001571585950180095</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01054939439116018</v>
+        <v>0.009224163106861489</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>6</v>
@@ -4107,19 +4107,19 @@
         <v>6176</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>2137</v>
+        <v>2361</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>14111</v>
+        <v>13340</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.006558177441171524</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002269538553480413</v>
+        <v>0.002507571863854316</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01498430819594345</v>
+        <v>0.01416628217238113</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>12</v>
@@ -4128,19 +4128,19 @@
         <v>12425</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>6997</v>
+        <v>6193</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>21743</v>
+        <v>21067</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.005268503092226738</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.002966963384308322</v>
+        <v>0.00262599917175472</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.009219227828274175</v>
+        <v>0.008932581896021849</v>
       </c>
     </row>
     <row r="53">
@@ -4157,19 +4157,19 @@
         <v>21970</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>13381</v>
+        <v>14516</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>33345</v>
+        <v>33906</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01550746696001938</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.009444943829404168</v>
+        <v>0.01024603868156885</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02353628042654027</v>
+        <v>0.02393248549749953</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>19</v>
@@ -4178,19 +4178,19 @@
         <v>20388</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>11998</v>
+        <v>12727</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>31184</v>
+        <v>30811</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.02165066108563212</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.01274105480257683</v>
+        <v>0.01351521715258878</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.0331149813828016</v>
+        <v>0.03271807151534687</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>40</v>
@@ -4199,19 +4199,19 @@
         <v>42358</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30476</v>
+        <v>30668</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>57462</v>
+        <v>57183</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01796037882499129</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.01292194309645255</v>
+        <v>0.01300374039719129</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.02436443731269863</v>
+        <v>0.02424621161020534</v>
       </c>
     </row>
     <row r="54">
@@ -4228,19 +4228,19 @@
         <v>163687</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>139945</v>
+        <v>138692</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>189284</v>
+        <v>188755</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1155380552330574</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.09878008446042741</v>
+        <v>0.09789550270961174</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1336054484538195</v>
+        <v>0.1332320334069675</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>131</v>
@@ -4249,19 +4249,19 @@
         <v>141189</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>119514</v>
+        <v>119972</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>165365</v>
+        <v>164439</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1499302716723946</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1269131669484508</v>
+        <v>0.1273996970548668</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1756032097233701</v>
+        <v>0.1746197492397654</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>286</v>
@@ -4270,19 +4270,19 @@
         <v>304876</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>271393</v>
+        <v>271093</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>338773</v>
+        <v>339090</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1292705002839157</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1150736033266726</v>
+        <v>0.1149460317373677</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1436433765730267</v>
+        <v>0.1437774790603094</v>
       </c>
     </row>
     <row r="55">
@@ -4299,19 +4299,19 @@
         <v>313553</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>280873</v>
+        <v>279831</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>346097</v>
+        <v>344116</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2213208890153444</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1982534421902478</v>
+        <v>0.1975180626571524</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2442920612165284</v>
+        <v>0.2428932362066376</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>203</v>
@@ -4320,19 +4320,19 @@
         <v>215608</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>189306</v>
+        <v>192185</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>241130</v>
+        <v>246225</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2289569856185094</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.201026871844461</v>
+        <v>0.204083445220932</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.256059348419646</v>
+        <v>0.2614699015462567</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>502</v>
@@ -4341,19 +4341,19 @@
         <v>529161</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>489476</v>
+        <v>487342</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>575306</v>
+        <v>571781</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.224369900909968</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2075428760161033</v>
+        <v>0.2066378840562511</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2439356068377508</v>
+        <v>0.242441127654346</v>
       </c>
     </row>
     <row r="56">
@@ -4370,19 +4370,19 @@
         <v>911276</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>877366</v>
+        <v>872423</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>950833</v>
+        <v>945781</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.6432223256850889</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6192869423804315</v>
+        <v>0.6157977430654064</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6711431776395164</v>
+        <v>0.6675772524119947</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>511</v>
@@ -4391,19 +4391,19 @@
         <v>558336</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>527792</v>
+        <v>528478</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>593975</v>
+        <v>591158</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.5929039041822923</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.5604686406199786</v>
+        <v>0.5611972013681145</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.6307493525006511</v>
+        <v>0.6277584781102034</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1360</v>
@@ -4412,19 +4412,19 @@
         <v>1469612</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1420302</v>
+        <v>1421163</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1517304</v>
+        <v>1522017</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.6231307168888982</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.6022228177240259</v>
+        <v>0.6025876705427169</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.6433525490962148</v>
+        <v>0.6453508629767523</v>
       </c>
     </row>
     <row r="57">
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4243</v>
+        <v>5050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007678505269919305</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03189238870456983</v>
+        <v>0.03795851370039679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4781,19 +4781,19 @@
         <v>2972</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8030</v>
+        <v>7185</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02970285039510949</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00925718248948104</v>
+        <v>0.009147128500802772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08024802020205195</v>
+        <v>0.07179812502128956</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4802,19 +4802,19 @@
         <v>3994</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1000</v>
+        <v>1101</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9068</v>
+        <v>9907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01713271342290045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004289655843285492</v>
+        <v>0.004722904967644457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03889906717110324</v>
+        <v>0.04249912998595227</v>
       </c>
     </row>
     <row r="5">
@@ -4831,19 +4831,19 @@
         <v>6922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3083</v>
+        <v>2604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14335</v>
+        <v>13660</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05202175153546249</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02316876470475701</v>
+        <v>0.01957194069232176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.10773867235083</v>
+        <v>0.1026668149524727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6574</v>
+        <v>6746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01885736315324411</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06569082281844787</v>
+        <v>0.06741380204762558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -4873,19 +4873,19 @@
         <v>8809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4183</v>
+        <v>3738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16525</v>
+        <v>16623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03778554931244204</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01794293333082794</v>
+        <v>0.01603405246133593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07088554633753476</v>
+        <v>0.07130749677865579</v>
       </c>
     </row>
     <row r="6">
@@ -4902,19 +4902,19 @@
         <v>22532</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14223</v>
+        <v>14514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32702</v>
+        <v>33220</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1693498080818312</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.106896559180192</v>
+        <v>0.1090843097395329</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2457853696861285</v>
+        <v>0.2496760552195672</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -4923,19 +4923,19 @@
         <v>8322</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3893</v>
+        <v>3880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15796</v>
+        <v>15746</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0831624834713152</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03890685276857794</v>
+        <v>0.03877412175746726</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1578516262963799</v>
+        <v>0.1573482206113322</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -4944,19 +4944,19 @@
         <v>30854</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21409</v>
+        <v>21120</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43490</v>
+        <v>44968</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1323528893364737</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09183810726815447</v>
+        <v>0.0905956797456185</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1865572040359492</v>
+        <v>0.1928957775950259</v>
       </c>
     </row>
     <row r="7">
@@ -4973,19 +4973,19 @@
         <v>27238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18482</v>
+        <v>18802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38594</v>
+        <v>38711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2047205375512934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1389113977080472</v>
+        <v>0.1413159745535243</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2900669744350078</v>
+        <v>0.2909506480040421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -4994,19 +4994,19 @@
         <v>25015</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16871</v>
+        <v>17289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34218</v>
+        <v>34757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2499759900843344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1685917307369318</v>
+        <v>0.1727684020749434</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3419408670212259</v>
+        <v>0.3473227294624361</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -5015,19 +5015,19 @@
         <v>52253</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39784</v>
+        <v>39835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66574</v>
+        <v>66493</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2241469707039128</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.170656975220189</v>
+        <v>0.170876877173485</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2855779637994202</v>
+        <v>0.2852288443130881</v>
       </c>
     </row>
     <row r="8">
@@ -5044,19 +5044,19 @@
         <v>75337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63913</v>
+        <v>61989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87388</v>
+        <v>86394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5662293975614936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4803628341986984</v>
+        <v>0.4659075021500123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6567984538628229</v>
+        <v>0.6493299293816056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -5065,19 +5065,19 @@
         <v>61873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52115</v>
+        <v>51471</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>71156</v>
+        <v>70930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6183013128959969</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5207888698827821</v>
+        <v>0.5143536117067801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7110622290739955</v>
+        <v>0.7088083895036438</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>127</v>
@@ -5086,19 +5086,19 @@
         <v>137210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>120059</v>
+        <v>121567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>153709</v>
+        <v>153728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.588581877224271</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5150081242801741</v>
+        <v>0.5214766949216839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6593547822172311</v>
+        <v>0.6594367200727159</v>
       </c>
     </row>
     <row r="9">
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4952</v>
+        <v>5541</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006383262362245856</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.029077114685598</v>
+        <v>0.0325353878180174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4947</v>
+        <v>5182</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008662377664846824</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04351464995523788</v>
+        <v>0.04558372674228817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8039</v>
+        <v>7353</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00729562599270844</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02830934651431666</v>
+        <v>0.02589204537933244</v>
       </c>
     </row>
     <row r="11">
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7281</v>
+        <v>6382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01214531195265272</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04275221721212127</v>
+        <v>0.03747579769654781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6088</v>
+        <v>5067</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009755861444417748</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05355095347265842</v>
+        <v>0.04456952168786973</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -5303,19 +5303,19 @@
         <v>3177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8574</v>
+        <v>8558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01118877950428733</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003616418110030893</v>
+        <v>0.003603461863459596</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03019433496989782</v>
+        <v>0.03013769629459725</v>
       </c>
     </row>
     <row r="12">
@@ -5332,19 +5332,19 @@
         <v>27347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17888</v>
+        <v>18814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38040</v>
+        <v>38289</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1605854460357944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1050420663323951</v>
+        <v>0.1104794825093063</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2233746774174337</v>
+        <v>0.2248375971125796</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -5353,19 +5353,19 @@
         <v>11195</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5993</v>
+        <v>6106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18273</v>
+        <v>18612</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0984741134843848</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05271541364057408</v>
+        <v>0.05371203742718517</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1607448084438128</v>
+        <v>0.1637270469097462</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -5374,19 +5374,19 @@
         <v>38542</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27813</v>
+        <v>28243</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50843</v>
+        <v>53485</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.135721359170684</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09794056437379534</v>
+        <v>0.09945657695973771</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1790405611686357</v>
+        <v>0.1883428953277324</v>
       </c>
     </row>
     <row r="13">
@@ -5403,19 +5403,19 @@
         <v>46320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34225</v>
+        <v>35118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58816</v>
+        <v>58831</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2719933857905977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2009700386702474</v>
+        <v>0.2062157597721566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3453709557181778</v>
+        <v>0.3454639176624646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5424,19 +5424,19 @@
         <v>26031</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17147</v>
+        <v>18106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35738</v>
+        <v>35325</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2289805743774563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1508399603081577</v>
+        <v>0.1592739331618089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3143704628987193</v>
+        <v>0.310738101854191</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -5445,19 +5445,19 @@
         <v>72350</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58410</v>
+        <v>59756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87797</v>
+        <v>88662</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2547747199633308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2056852451947932</v>
+        <v>0.2104244944839402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3091690595443328</v>
+        <v>0.3122156761617714</v>
       </c>
     </row>
     <row r="14">
@@ -5474,19 +5474,19 @@
         <v>93475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80626</v>
+        <v>79145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108527</v>
+        <v>107153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5488925938587094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4734445868899882</v>
+        <v>0.4647478752621818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6372828765973808</v>
+        <v>0.6292104470379781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -5495,19 +5495,19 @@
         <v>74361</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63773</v>
+        <v>64131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84683</v>
+        <v>83824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6541270730288943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5609840471375618</v>
+        <v>0.5641333984486562</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7449282973706625</v>
+        <v>0.7373671512074932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>155</v>
@@ -5516,19 +5516,19 @@
         <v>167836</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>150588</v>
+        <v>150308</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185938</v>
+        <v>185295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5910195153689894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5302819844162353</v>
+        <v>0.5292954197401806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6547632727787027</v>
+        <v>0.6524991092484512</v>
       </c>
     </row>
     <row r="15">
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8569</v>
+        <v>9145</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02000126141959776</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0682332732791993</v>
+        <v>0.07281816241569644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5895</v>
+        <v>5781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02251191153012572</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06990090009832294</v>
+        <v>0.0685542353462895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5662,19 +5662,19 @@
         <v>4410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1581</v>
+        <v>984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11182</v>
+        <v>10439</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02100988007264298</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007529178237652679</v>
+        <v>0.004689024631996632</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05326549051961049</v>
+        <v>0.04972632614344028</v>
       </c>
     </row>
     <row r="17">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4914</v>
+        <v>4516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01069068021028928</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05827269908918015</v>
+        <v>0.0535551850184598</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4561</v>
+        <v>4514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004294831616967826</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02172572942356849</v>
+        <v>0.02150227935179409</v>
       </c>
     </row>
     <row r="18">
@@ -5754,19 +5754,19 @@
         <v>10563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5691</v>
+        <v>5541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18106</v>
+        <v>18286</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08410766376935562</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04531758825868575</v>
+        <v>0.04411694478415277</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.14416811266494</v>
+        <v>0.1456037248023175</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -5775,19 +5775,19 @@
         <v>8949</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4281</v>
+        <v>4096</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17135</v>
+        <v>16782</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1061121964944629</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0507614675200368</v>
+        <v>0.04856718791218394</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2031790102434521</v>
+        <v>0.1989934251920899</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -5796,19 +5796,19 @@
         <v>19512</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12094</v>
+        <v>12330</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30104</v>
+        <v>29238</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09294767778206893</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05760984973614224</v>
+        <v>0.05873714535183883</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1434065741367558</v>
+        <v>0.1392794817486865</v>
       </c>
     </row>
     <row r="19">
@@ -5825,19 +5825,19 @@
         <v>41417</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31634</v>
+        <v>31731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52975</v>
+        <v>50987</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3297792443971613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2518855953986214</v>
+        <v>0.2526563696939395</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4218110114439108</v>
+        <v>0.4059836998254696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -5846,19 +5846,19 @@
         <v>26870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19236</v>
+        <v>19099</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35904</v>
+        <v>36425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3186210411256221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.228098880495427</v>
+        <v>0.2264677949036628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4257419030486478</v>
+        <v>0.4319157702573678</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -5867,19 +5867,19 @@
         <v>68287</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55344</v>
+        <v>56294</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82617</v>
+        <v>81672</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3252965919132682</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2636387756464219</v>
+        <v>0.2681682588552519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3935612644038013</v>
+        <v>0.389059314061442</v>
       </c>
     </row>
     <row r="20">
@@ -5896,19 +5896,19 @@
         <v>71097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60137</v>
+        <v>60411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81798</v>
+        <v>82152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5661118304138854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4788357705424485</v>
+        <v>0.481025346878944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6513179619048802</v>
+        <v>0.6541342837506317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -5917,19 +5917,19 @@
         <v>45714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36213</v>
+        <v>37261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54860</v>
+        <v>55492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5420641706394999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4294056589393691</v>
+        <v>0.4418321335029173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.650518728132492</v>
+        <v>0.6580162199750076</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>122</v>
@@ -5938,19 +5938,19 @@
         <v>116811</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102625</v>
+        <v>102611</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>130561</v>
+        <v>130078</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5564510186150521</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4888735199463796</v>
+        <v>0.4888033129491898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6219498677673685</v>
+        <v>0.619650735021354</v>
       </c>
     </row>
     <row r="21">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5174</v>
+        <v>4881</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009485709342092606</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04612275653559419</v>
+        <v>0.04351305834594345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5638</v>
+        <v>5778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01362524573587019</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06887896789811236</v>
+        <v>0.07058370687058291</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7592</v>
+        <v>6804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01123204675344735</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03912461109912386</v>
+        <v>0.03506482173265843</v>
       </c>
     </row>
     <row r="23">
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8854</v>
+        <v>9958</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02269854094767781</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07893098578205955</v>
+        <v>0.08876651446755074</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10464</v>
+        <v>9155</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01312275577045797</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05392908681673261</v>
+        <v>0.04718138167750179</v>
       </c>
     </row>
     <row r="24">
@@ -6176,19 +6176,19 @@
         <v>6556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2810</v>
+        <v>2862</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13816</v>
+        <v>13573</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05844478137092724</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02504858759668616</v>
+        <v>0.02550961496534424</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1231563799788495</v>
+        <v>0.1209963824220729</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -6197,19 +6197,19 @@
         <v>11060</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5749</v>
+        <v>6209</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18079</v>
+        <v>18643</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1351093191238973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07022651023412685</v>
+        <v>0.07584453788843845</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2208613831872716</v>
+        <v>0.2277401260396036</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -6218,19 +6218,19 @@
         <v>17616</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10825</v>
+        <v>10941</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27555</v>
+        <v>27026</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0907870868048105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05578731849476976</v>
+        <v>0.05638308075852783</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1420099865914125</v>
+        <v>0.1392829432070875</v>
       </c>
     </row>
     <row r="25">
@@ -6247,19 +6247,19 @@
         <v>14045</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7023</v>
+        <v>7420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23617</v>
+        <v>23651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1251974897705089</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06260441222475077</v>
+        <v>0.06614139629972574</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2105234949082713</v>
+        <v>0.2108282912674127</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -6268,19 +6268,19 @@
         <v>5084</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2022</v>
+        <v>2035</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11137</v>
+        <v>11436</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06210772737488609</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02470256271925548</v>
+        <v>0.02486542170158102</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1360484404548505</v>
+        <v>0.1396976098929673</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -6289,19 +6289,19 @@
         <v>19129</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11356</v>
+        <v>11623</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29043</v>
+        <v>31080</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09858194593555888</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05852585997395218</v>
+        <v>0.0599018406011888</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1496766861016583</v>
+        <v>0.1601762466918537</v>
       </c>
     </row>
     <row r="26">
@@ -6318,19 +6318,19 @@
         <v>87969</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77360</v>
+        <v>78053</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96909</v>
+        <v>95875</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7841734785687935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.689606028199973</v>
+        <v>0.6957875795310693</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8638698283780726</v>
+        <v>0.8546568944378858</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -6339,19 +6339,19 @@
         <v>64600</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56311</v>
+        <v>55903</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70563</v>
+        <v>70959</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7891577077653464</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6879022432616489</v>
+        <v>0.6829232479250411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.862010420204515</v>
+        <v>0.8668393494354695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>146</v>
@@ -6360,19 +6360,19 @@
         <v>152568</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>139516</v>
+        <v>138738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>164296</v>
+        <v>162879</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7862761647357253</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7190083926270738</v>
+        <v>0.7150031219618366</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8467154300261479</v>
+        <v>0.8394131118894628</v>
       </c>
     </row>
     <row r="27">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4865</v>
+        <v>5342</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01182432312172545</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06011814539333802</v>
+        <v>0.06601079749340032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4833</v>
+        <v>5302</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007018359254134843</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03544383155891532</v>
+        <v>0.03888420975577151</v>
       </c>
     </row>
     <row r="29">
@@ -6574,19 +6574,19 @@
         <v>13870</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7273</v>
+        <v>7979</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21797</v>
+        <v>21873</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1713804589500888</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0898711612513968</v>
+        <v>0.09858819831956825</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2693318273658422</v>
+        <v>0.2702665405552554</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -6595,19 +6595,19 @@
         <v>6723</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2969</v>
+        <v>3047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12825</v>
+        <v>12828</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1213216943510894</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05356773001843939</v>
+        <v>0.05497893821305423</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.231421588400357</v>
+        <v>0.2314799218272843</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -6616,19 +6616,19 @@
         <v>20593</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13605</v>
+        <v>12863</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>29731</v>
+        <v>29486</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.151034210675041</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09978435769082473</v>
+        <v>0.09433595690239649</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2180487075283563</v>
+        <v>0.2162541147307855</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>35160</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25985</v>
+        <v>26649</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43978</v>
+        <v>44732</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4344447308723324</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3210780097690989</v>
+        <v>0.3292844280645206</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5434099146083108</v>
+        <v>0.552720622231176</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -6666,19 +6666,19 @@
         <v>28456</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21741</v>
+        <v>21713</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34614</v>
+        <v>36200</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5134879964699687</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.392301731296138</v>
+        <v>0.391807870442525</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6245939696239635</v>
+        <v>0.6532250988678296</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>66</v>
@@ -6687,19 +6687,19 @@
         <v>63616</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51622</v>
+        <v>52543</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75342</v>
+        <v>75450</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4665716504877678</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3786029912415279</v>
+        <v>0.3853564755055816</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5525689300167351</v>
+        <v>0.5533661775869027</v>
       </c>
     </row>
     <row r="32">
@@ -6716,19 +6716,19 @@
         <v>30944</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23188</v>
+        <v>22653</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>40561</v>
+        <v>40164</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3823504870558534</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2865195191596598</v>
+        <v>0.2799025339611071</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5011882464203737</v>
+        <v>0.4962806977476587</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -6737,19 +6737,19 @@
         <v>20238</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14353</v>
+        <v>12929</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27317</v>
+        <v>27237</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3651903091789419</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2590039970980262</v>
+        <v>0.2333041382921742</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4929321037869123</v>
+        <v>0.4914844263358435</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -6758,19 +6758,19 @@
         <v>51182</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>40977</v>
+        <v>40894</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>63339</v>
+        <v>63753</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3753757795830565</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3005334813756608</v>
+        <v>0.2999248664842339</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4645401810489589</v>
+        <v>0.4675727246365106</v>
       </c>
     </row>
     <row r="33">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4723</v>
+        <v>4975</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009402333785665747</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04393814385505282</v>
+        <v>0.0462784479429586</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4999</v>
+        <v>5037</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.00552121478661565</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02730489571316877</v>
+        <v>0.02751184023708489</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>9402</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3982</v>
+        <v>4753</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16521</v>
+        <v>17519</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08745676013933387</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03704346453016411</v>
+        <v>0.04420973459471191</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1536800218918449</v>
+        <v>0.1629676640924014</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -6946,19 +6946,19 @@
         <v>8827</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4583</v>
+        <v>4206</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15261</v>
+        <v>16077</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1168027923522401</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06065138342918121</v>
+        <v>0.05565908346181667</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2019520023869409</v>
+        <v>0.2127501664757905</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>18</v>
@@ -6967,19 +6967,19 @@
         <v>18228</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11463</v>
+        <v>11557</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>28050</v>
+        <v>28423</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09957028915931879</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06261417692178338</v>
+        <v>0.06312942344627427</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1532181229929357</v>
+        <v>0.1552541131504399</v>
       </c>
     </row>
     <row r="36">
@@ -6996,19 +6996,19 @@
         <v>22093</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14763</v>
+        <v>13852</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32065</v>
+        <v>31199</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2055096924989996</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1373246961972235</v>
+        <v>0.1288538865395624</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2982736467432099</v>
+        <v>0.2902219694168433</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -7017,19 +7017,19 @@
         <v>20510</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13801</v>
+        <v>13976</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29111</v>
+        <v>28260</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2714066308996608</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1826354874209371</v>
+        <v>0.1849509792057366</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3852239132417278</v>
+        <v>0.3739689778329082</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -7038,19 +7038,19 @@
         <v>42603</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>32032</v>
+        <v>32499</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>54721</v>
+        <v>54362</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2327107965478632</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1749714938579566</v>
+        <v>0.177519383805278</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2989033406715546</v>
+        <v>0.2969466368833715</v>
       </c>
     </row>
     <row r="37">
@@ -7067,19 +7067,19 @@
         <v>34207</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25082</v>
+        <v>25196</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44107</v>
+        <v>43798</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3181995213660858</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2333148573034548</v>
+        <v>0.2343790882552969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.410290770630286</v>
+        <v>0.4074124448479665</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>27</v>
@@ -7088,19 +7088,19 @@
         <v>25922</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18051</v>
+        <v>18586</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>33324</v>
+        <v>34329</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.343032770010017</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.238875414929528</v>
+        <v>0.2459572239462163</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4409751297806546</v>
+        <v>0.4542796823096683</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>59</v>
@@ -7109,19 +7109,19 @@
         <v>60130</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>47173</v>
+        <v>48178</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>72654</v>
+        <v>73465</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3284502522289948</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2576745836530275</v>
+        <v>0.2631634868313973</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3968597875144512</v>
+        <v>0.4012935377250527</v>
       </c>
     </row>
     <row r="38">
@@ -7138,19 +7138,19 @@
         <v>40790</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30526</v>
+        <v>31056</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>51070</v>
+        <v>51671</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3794316922099151</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2839539558491907</v>
+        <v>0.2888845123861704</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4750646054231951</v>
+        <v>0.480649288693416</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>20</v>
@@ -7159,19 +7159,19 @@
         <v>20309</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>13737</v>
+        <v>13165</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>29239</v>
+        <v>28217</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2687578067380821</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1817827445468957</v>
+        <v>0.1742086540749793</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.386928455539309</v>
+        <v>0.3734004512801773</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>59</v>
@@ -7180,19 +7180,19 @@
         <v>61099</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>48582</v>
+        <v>49405</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>73741</v>
+        <v>74210</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3337474472772075</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2653707830526194</v>
+        <v>0.2698689821182255</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4027993918230682</v>
+        <v>0.4053628247757247</v>
       </c>
     </row>
     <row r="39">
@@ -7284,19 +7284,19 @@
         <v>12282</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6504</v>
+        <v>6506</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20885</v>
+        <v>20384</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03422445352403911</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01812390839531415</v>
+        <v>0.01812889925863621</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05819548260504486</v>
+        <v>0.05679996336981138</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>8</v>
@@ -7305,19 +7305,19 @@
         <v>8209</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3995</v>
+        <v>4019</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16238</v>
+        <v>15632</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02892064127485632</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01407302074278303</v>
+        <v>0.01415795072341395</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05720563141674599</v>
+        <v>0.05507170487498111</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>19</v>
@@ -7326,19 +7326,19 @@
         <v>20491</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>12963</v>
+        <v>11866</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>30921</v>
+        <v>30981</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03188212149140581</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02016858670353515</v>
+        <v>0.0184627588407888</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0481102267741618</v>
+        <v>0.04820356893712736</v>
       </c>
     </row>
     <row r="41">
@@ -7355,19 +7355,19 @@
         <v>31041</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20846</v>
+        <v>20953</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>44071</v>
+        <v>42571</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.08649664958004373</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.05808716176939698</v>
+        <v>0.0583841704232046</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1228036545757383</v>
+        <v>0.1186236475072111</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>21</v>
@@ -7376,19 +7376,19 @@
         <v>21259</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>12817</v>
+        <v>13624</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>31640</v>
+        <v>31132</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.07489484163143718</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0451535410716364</v>
+        <v>0.04799836382862432</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1114686160278109</v>
+        <v>0.109678575864178</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>48</v>
@@ -7397,19 +7397,19 @@
         <v>52300</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>38529</v>
+        <v>39311</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>67555</v>
+        <v>68240</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08137292251020488</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05994713457250529</v>
+        <v>0.06116394630241215</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1051081379191704</v>
+        <v>0.1061742232752161</v>
       </c>
     </row>
     <row r="42">
@@ -7426,19 +7426,19 @@
         <v>87191</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>70583</v>
+        <v>71080</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>105248</v>
+        <v>103967</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2429560892639128</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1966777227789043</v>
+        <v>0.198062011099138</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2932731374857385</v>
+        <v>0.2897020592676872</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>66</v>
@@ -7447,19 +7447,19 @@
         <v>67497</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>54841</v>
+        <v>54367</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>83449</v>
+        <v>82899</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2377950401362258</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1932068774917363</v>
+        <v>0.191538665585753</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2939947794407418</v>
+        <v>0.2920565042904478</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>139</v>
@@ -7468,19 +7468,19 @@
         <v>154688</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>133580</v>
+        <v>130603</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>178974</v>
+        <v>177027</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2406768059624275</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2078358435797631</v>
+        <v>0.2032026228369668</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2784632368789686</v>
+        <v>0.2754330807470363</v>
       </c>
     </row>
     <row r="43">
@@ -7497,19 +7497,19 @@
         <v>86985</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>71251</v>
+        <v>70005</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>104184</v>
+        <v>105038</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2423836318607838</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1985403025326842</v>
+        <v>0.1950688449017523</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2903084047881281</v>
+        <v>0.2926855244061385</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>70</v>
@@ -7518,19 +7518,19 @@
         <v>72679</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>58442</v>
+        <v>59761</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>86899</v>
+        <v>87229</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2560510589311387</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2058920078479793</v>
+        <v>0.2105405724532632</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3061476626348555</v>
+        <v>0.3073121395803516</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>147</v>
@@ -7539,19 +7539,19 @@
         <v>159664</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>137307</v>
+        <v>137205</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>182720</v>
+        <v>182069</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2484196019755827</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2136334412250745</v>
+        <v>0.2134744861157804</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2842905805848939</v>
+        <v>0.2832780828757064</v>
       </c>
     </row>
     <row r="44">
@@ -7568,19 +7568,19 @@
         <v>141375</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>122022</v>
+        <v>124000</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>158807</v>
+        <v>160903</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3939391757712206</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3400111658756468</v>
+        <v>0.3455239508897467</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4425121942745123</v>
+        <v>0.4483535178279537</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>108</v>
@@ -7589,19 +7589,19 @@
         <v>114202</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>97994</v>
+        <v>97334</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>132160</v>
+        <v>131087</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.402338418026342</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3452373022777853</v>
+        <v>0.3429108303510728</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4656041079662201</v>
+        <v>0.4618240744141095</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>232</v>
@@ -7610,19 +7610,19 @@
         <v>255577</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>229361</v>
+        <v>230563</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>281596</v>
+        <v>280524</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3976485480603791</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3568593647299751</v>
+        <v>0.3587299337309731</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4381303155145783</v>
+        <v>0.4364626573859446</v>
       </c>
     </row>
     <row r="45">
@@ -7714,19 +7714,19 @@
         <v>3494</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>9749</v>
+        <v>10629</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01065605279235388</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003213259451032946</v>
+        <v>0.003243684951933968</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02972937025831074</v>
+        <v>0.03241357592920179</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>5295</v>
+        <v>5398</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004551423140158176</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02232123366768635</v>
+        <v>0.02275504810302254</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4</v>
@@ -7756,19 +7756,19 @@
         <v>4574</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1349</v>
+        <v>1097</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>11314</v>
+        <v>10894</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.008093658262727498</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002387419161042279</v>
+        <v>0.001941016116425908</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02001969976828636</v>
+        <v>0.01927712842392231</v>
       </c>
     </row>
     <row r="47">
@@ -7785,19 +7785,19 @@
         <v>2793</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8677</v>
+        <v>7807</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.008517760527383903</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002796968212746461</v>
+        <v>0.002778128622937788</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02646101164655024</v>
+        <v>0.02380819651238234</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6363</v>
+        <v>6557</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.008847458213650277</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02682298480624723</v>
+        <v>0.02764194763725347</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -7827,19 +7827,19 @@
         <v>4892</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1836</v>
+        <v>1846</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>10759</v>
+        <v>10676</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.008656149847596894</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.003249201619414509</v>
+        <v>0.003266059091651145</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01903890383557193</v>
+        <v>0.01889171411604549</v>
       </c>
     </row>
     <row r="48">
@@ -7856,19 +7856,19 @@
         <v>23038</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14065</v>
+        <v>14366</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>34017</v>
+        <v>33234</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0702554680547616</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04289375343555198</v>
+        <v>0.04380939487450312</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1037381675762794</v>
+        <v>0.101349702871499</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>24</v>
@@ -7877,19 +7877,19 @@
         <v>25295</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>17080</v>
+        <v>16664</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>36331</v>
+        <v>35872</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1066356518118682</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.07200277124383134</v>
+        <v>0.07025023436082324</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1531628766926164</v>
+        <v>0.1512261416825554</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>45</v>
@@ -7898,19 +7898,19 @@
         <v>48332</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>35950</v>
+        <v>36232</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>64082</v>
+        <v>64027</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.08552590854945782</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.06361549826280093</v>
+        <v>0.06411393185986555</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1133947154159982</v>
+        <v>0.1132981521403913</v>
       </c>
     </row>
     <row r="49">
@@ -7927,19 +7927,19 @@
         <v>116053</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>100026</v>
+        <v>99219</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>134442</v>
+        <v>132878</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3539148529587897</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3050395498032498</v>
+        <v>0.3025776966401909</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4099917005726024</v>
+        <v>0.4052235293640906</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>77</v>
@@ -7948,19 +7948,19 @@
         <v>78354</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>64489</v>
+        <v>65647</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>92377</v>
+        <v>93642</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3303191471740203</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2718692348680534</v>
+        <v>0.2767514003000954</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3894371345075505</v>
+        <v>0.3947681433553376</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>191</v>
@@ -7969,19 +7969,19 @@
         <v>194407</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>171996</v>
+        <v>170905</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>215221</v>
+        <v>218066</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3440106473197432</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.304353462106322</v>
+        <v>0.3024231575858943</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3808424343079342</v>
+        <v>0.3858767020834672</v>
       </c>
     </row>
     <row r="50">
@@ -7998,19 +7998,19 @@
         <v>182535</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>165280</v>
+        <v>165674</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>200741</v>
+        <v>200080</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.556655865666711</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5040372433322651</v>
+        <v>0.5052367728836368</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6121789972745219</v>
+        <v>0.610163160488294</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>124</v>
@@ -8019,19 +8019,19 @@
         <v>130380</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>114968</v>
+        <v>114821</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>146776</v>
+        <v>144449</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.549646319660303</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.484671713799608</v>
+        <v>0.4840543472732952</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.6187678763271065</v>
+        <v>0.6089577527525332</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>297</v>
@@ -8040,19 +8040,19 @@
         <v>312914</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>288063</v>
+        <v>287928</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>335789</v>
+        <v>338321</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5537136360204745</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.5097390980221495</v>
+        <v>0.509499018641326</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.594192037247482</v>
+        <v>0.5986724380277965</v>
       </c>
     </row>
     <row r="51">
@@ -8144,19 +8144,19 @@
         <v>23429</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>15125</v>
+        <v>14682</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>35566</v>
+        <v>35077</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01654197295969511</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01067903491828407</v>
+        <v>0.0103664045031098</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02511111341180397</v>
+        <v>0.0247660446904099</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>16</v>
@@ -8165,19 +8165,19 @@
         <v>16260</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>9304</v>
+        <v>9742</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>25895</v>
+        <v>24580</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01575569590313318</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.00901614293030599</v>
+        <v>0.009439703115118913</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02509242740835852</v>
+        <v>0.02381830527484279</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>37</v>
@@ -8186,19 +8186,19 @@
         <v>39689</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>28013</v>
+        <v>28203</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>53316</v>
+        <v>53334</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01621055222457073</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01144160381928483</v>
+        <v>0.01151918608136908</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02177652967074947</v>
+        <v>0.0217839961005769</v>
       </c>
     </row>
     <row r="53">
@@ -8215,19 +8215,19 @@
         <v>54773</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>41720</v>
+        <v>40193</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>73396</v>
+        <v>70857</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.03867199103263546</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.02945646018729462</v>
+        <v>0.02837808057235928</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.05182072510695141</v>
+        <v>0.05002835522511006</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>36</v>
@@ -8236,19 +8236,19 @@
         <v>36082</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>25884</v>
+        <v>25678</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>50198</v>
+        <v>50015</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.03496339061530682</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02508168913172517</v>
+        <v>0.02488201188460338</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.04864266656303666</v>
+        <v>0.04846514936217312</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>85</v>
@@ -8257,19 +8257,19 @@
         <v>90854</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>72340</v>
+        <v>75129</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>110759</v>
+        <v>114418</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.03710879258199262</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02954666198836458</v>
+        <v>0.0306858829642952</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04523888855070249</v>
+        <v>0.04673335427502826</v>
       </c>
     </row>
     <row r="54">
@@ -8286,19 +8286,19 @@
         <v>213190</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>185946</v>
+        <v>184637</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>244397</v>
+        <v>242996</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1505219835896045</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1312866820320643</v>
+        <v>0.1303625132928321</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.172555605494113</v>
+        <v>0.1715665204317025</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>156</v>
@@ -8307,19 +8307,19 @@
         <v>159550</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>138951</v>
+        <v>137477</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>186140</v>
+        <v>184567</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1546058641526799</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1346448257776672</v>
+        <v>0.1332167496326551</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1803708896355655</v>
+        <v>0.1788468546230602</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>347</v>
@@ -8328,19 +8328,19 @@
         <v>372740</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>336180</v>
+        <v>337926</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>410289</v>
+        <v>409839</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1522433649870127</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1373104994410357</v>
+        <v>0.1380238470850372</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1675801130001801</v>
+        <v>0.1673963453610801</v>
       </c>
     </row>
     <row r="55">
@@ -8357,19 +8357,19 @@
         <v>401425</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>368063</v>
+        <v>366063</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>436882</v>
+        <v>435756</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2834245043342091</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2598699114525261</v>
+        <v>0.2584573819697791</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3084588328220446</v>
+        <v>0.3076640645675069</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>287</v>
@@ -8378,19 +8378,19 @@
         <v>288412</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>257647</v>
+        <v>257754</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>314710</v>
+        <v>316843</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2794741276374059</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.249662228613397</v>
+        <v>0.2497664049842475</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3049566196268461</v>
+        <v>0.3070240367039641</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>667</v>
@@ -8399,19 +8399,19 @@
         <v>689837</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>641750</v>
+        <v>649905</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>729782</v>
+        <v>735294</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.281759395657889</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2621186674445151</v>
+        <v>0.2654493834940932</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2980746885362124</v>
+        <v>0.3003261110848855</v>
       </c>
     </row>
     <row r="56">
@@ -8428,19 +8428,19 @@
         <v>723521</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>686541</v>
+        <v>686296</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>761868</v>
+        <v>761088</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5108395480838558</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4847303135405702</v>
+        <v>0.4845567371132194</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5379146856864132</v>
+        <v>0.5373639682265967</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>513</v>
@@ -8449,19 +8449,19 @@
         <v>531678</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>501107</v>
+        <v>499365</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>566751</v>
+        <v>563476</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.5152009216914741</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4855773087789723</v>
+        <v>0.48388885061366</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5491868493683983</v>
+        <v>0.5460136689357471</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1189</v>
@@ -8470,19 +8470,19 @@
         <v>1255199</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1206942</v>
+        <v>1204372</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1305898</v>
+        <v>1302400</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.512677894548535</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4929676755342284</v>
+        <v>0.4919183290307537</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.5333859492551568</v>
+        <v>0.5319569551611644</v>
       </c>
     </row>
     <row r="57">
